--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2603.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2603.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7928701113011427</v>
+        <v>1.393568754196167</v>
       </c>
       <c r="B1">
-        <v>1.528526469752375</v>
+        <v>2.175681114196777</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.890871047973633</v>
       </c>
       <c r="D1">
-        <v>1.871561273584562</v>
+        <v>3.541317462921143</v>
       </c>
       <c r="E1">
-        <v>0.9287974330808353</v>
+        <v>1.219420075416565</v>
       </c>
     </row>
   </sheetData>
